--- a/public/Pelanggan/okw_cisitu_oke_terbatu.xlsx
+++ b/public/Pelanggan/okw_cisitu_oke_terbatu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0261D0-9F0A-45AC-8AB2-145B701DEC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267068B1-0957-4EBD-98A5-EB7CE781B214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9BB69F2C-843C-4B7B-AB19-DEE24A0F072E}"/>
   </bookViews>
@@ -361,10 +361,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,13 +684,14 @@
   <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1069,6 +1072,7 @@
       <c r="N6">
         <v>7</v>
       </c>
+      <c r="O6" s="4"/>
       <c r="Q6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1140,6 +1144,7 @@
       <c r="N7">
         <v>2</v>
       </c>
+      <c r="O7" s="4"/>
       <c r="Q7" s="2" t="s">
         <v>90</v>
       </c>
@@ -1211,6 +1216,7 @@
       <c r="N8">
         <v>3</v>
       </c>
+      <c r="O8" s="4"/>
       <c r="Q8" s="2" t="s">
         <v>91</v>
       </c>
@@ -1279,6 +1285,7 @@
       <c r="N9">
         <v>3</v>
       </c>
+      <c r="O9" s="4"/>
       <c r="Q9" s="2" t="s">
         <v>92</v>
       </c>
@@ -1347,6 +1354,7 @@
       <c r="M10" t="s">
         <v>4</v>
       </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="2" t="s">
         <v>88</v>
       </c>
@@ -1708,7 +1716,7 @@
       <c r="N15">
         <v>2</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -1782,7 +1790,7 @@
       <c r="N16">
         <v>4</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -1856,7 +1864,7 @@
       <c r="N17">
         <v>3</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q17" s="1" t="s">
